--- a/projects/data/ATM_Data.xlsx
+++ b/projects/data/ATM_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15082\Documents\GitHub\jemceach.github.io\projects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19435957-AF3E-4DA5-80A7-107B740EECC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB3A531-67DE-4859-8585-93DC64C0400A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
+      <selection activeCell="A1097" sqref="A1097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     <col min="4" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>39934</v>
       </c>
@@ -472,7 +472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39934</v>
       </c>
@@ -483,7 +483,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39935</v>
       </c>
@@ -494,7 +494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>39935</v>
       </c>
@@ -505,7 +505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>39936</v>
       </c>
@@ -516,7 +516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>39936</v>
       </c>
@@ -527,7 +527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>39937</v>
       </c>
@@ -538,7 +538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>39937</v>
       </c>
@@ -549,7 +549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>39938</v>
       </c>
@@ -560,7 +560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>39938</v>
       </c>
@@ -571,7 +571,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>39939</v>
       </c>
@@ -582,7 +582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>39939</v>
       </c>
@@ -593,7 +593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>39940</v>
       </c>
@@ -604,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>39940</v>
       </c>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>39941</v>
       </c>
@@ -626,7 +626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>39941</v>
       </c>
@@ -637,7 +637,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>39942</v>
       </c>
@@ -648,7 +648,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39942</v>
       </c>
@@ -659,7 +659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39943</v>
       </c>
@@ -670,7 +670,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>39943</v>
       </c>
@@ -681,7 +681,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>39944</v>
       </c>
@@ -692,7 +692,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>39944</v>
       </c>
@@ -703,7 +703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>39945</v>
       </c>
@@ -714,7 +714,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>39945</v>
       </c>
@@ -725,7 +725,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>39946</v>
       </c>
@@ -736,7 +736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>39946</v>
       </c>
@@ -747,7 +747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>39947</v>
       </c>
@@ -758,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>39947</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>39948</v>
       </c>
@@ -780,7 +780,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39948</v>
       </c>
@@ -791,7 +791,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>39949</v>
       </c>
@@ -802,7 +802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>39949</v>
       </c>
@@ -813,7 +813,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>39950</v>
       </c>
@@ -824,7 +824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>39950</v>
       </c>
@@ -835,7 +835,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>39951</v>
       </c>
@@ -846,7 +846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>39951</v>
       </c>
@@ -857,7 +857,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39952</v>
       </c>
@@ -868,7 +868,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>39952</v>
       </c>
@@ -879,7 +879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39953</v>
       </c>
@@ -890,7 +890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39953</v>
       </c>
@@ -901,7 +901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39954</v>
       </c>
@@ -912,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39954</v>
       </c>
@@ -923,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39955</v>
       </c>
@@ -934,7 +934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>39955</v>
       </c>
@@ -945,7 +945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>39956</v>
       </c>
@@ -956,7 +956,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>39956</v>
       </c>
@@ -967,7 +967,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>39957</v>
       </c>
@@ -978,7 +978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>39957</v>
       </c>
@@ -989,7 +989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>39958</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>39958</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>39959</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>39959</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>39960</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>39960</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>39961</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>39961</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>39962</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>39962</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>39963</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>39963</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>39964</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>39964</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>39965</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>39965</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>39966</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>39966</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>39967</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>39967</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>39968</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>39968</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>39969</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39969</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39970</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39970</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39971</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39971</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39972</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39972</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39973</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39973</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39974</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>39974</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39975</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39975</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39976</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39976</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39977</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39977</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39978</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39978</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39979</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>39979</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>39980</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>39980</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>39981</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>39981</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39982</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>39982</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>39983</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>39983</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>39984</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>39984</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39985</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>39985</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>39986</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>39986</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>39987</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>39987</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>39988</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>39988</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>39989</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>39989</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>39990</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>39990</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>39991</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>39991</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>39992</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>39992</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>39993</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>39993</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>39994</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>39994</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>39995</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>39995</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>39996</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>39996</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>39997</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>39997</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>39998</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>39998</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>39999</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>39999</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>40000</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>40000</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>40001</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>40001</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>40002</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>40002</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>40003</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>40003</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>40004</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>40004</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>40005</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>40005</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>40006</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>40006</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>40007</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>40007</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>40008</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>40008</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>40009</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>40009</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>40010</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>40010</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>40011</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>40011</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>40012</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>40012</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>40013</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>40013</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>40014</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>40014</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>40015</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>40015</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>40016</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>40016</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>40017</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>40017</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>40018</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>40018</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>40019</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>40019</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>40020</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>40020</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>40021</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>40021</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>40022</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>40022</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>40023</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>40023</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>40024</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>40024</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>40025</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>40025</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>40026</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>40026</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>40027</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>40027</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>40028</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>40028</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>40029</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>40029</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>40030</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>40030</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>40031</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>40031</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>40032</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>40032</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>40033</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>40033</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>40034</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>40034</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>40035</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>40035</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>40036</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>40036</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>40037</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>40037</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>40038</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>40038</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>40039</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>40039</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>40040</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>40040</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>40041</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>40041</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>40042</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>40042</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>40043</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>40043</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>40044</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>40044</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>40045</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>40045</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>40046</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>40046</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>40047</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>40047</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>40048</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>40048</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>40049</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>40049</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>40050</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>40050</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>40051</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>40051</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>40052</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>40052</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>40053</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>40053</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>40054</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>40054</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>40055</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>40055</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>40056</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>40056</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>40057</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>40057</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>40058</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>40058</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>40059</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>40059</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>40060</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>40060</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>40061</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>40061</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>40062</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>40062</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>40063</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>40063</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>40064</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>40064</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>40065</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>40065</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>40066</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>40066</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>40067</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>40067</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>40068</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>40068</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>40069</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>40069</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>40070</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>40070</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>40071</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>40071</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>40072</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>40072</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>40073</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>40073</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>40074</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>40074</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>40075</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>40075</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>40076</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>40076</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>40077</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>40077</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>40078</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>40078</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>40079</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>40079</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>40080</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>40080</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>40081</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>40081</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>40082</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>40082</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>40083</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>40083</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>40084</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>40084</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>40085</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>40085</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>40086</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>40086</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>40087</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>40087</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>40088</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>40088</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>40089</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>40089</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>40090</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>40090</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>40091</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>40091</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>40092</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>40092</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>40093</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>40093</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>40094</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>40094</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>40095</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>40095</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>40096</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>40096</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>40097</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>40097</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>40098</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>40098</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>40099</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>40099</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>40100</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>40100</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>40101</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>40101</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>40102</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>40102</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>40103</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>40103</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>40104</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>40104</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>40105</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>40105</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>40106</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>40106</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>40107</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>40107</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>40108</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>40108</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>40109</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>40109</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>40110</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>40110</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>40111</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>40111</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>40112</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>40112</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>40113</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>40113</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>40114</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>40114</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>40115</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>40115</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>40116</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>40116</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>40117</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>40117</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>40118</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>40118</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>40119</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>40119</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>40120</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>40120</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>40121</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>40121</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>40122</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>40122</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>40123</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>40123</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>40124</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>40124</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>40125</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>40125</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>40126</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>40126</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>40127</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>40127</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>40128</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>40128</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>40129</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>40129</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>40130</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>40130</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>40131</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>40131</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>40132</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>40132</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>40133</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>40133</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>40134</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>40134</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>40135</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>40135</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>40136</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>40136</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>40137</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>40137</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>40138</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>40138</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>40139</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>40139</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>40140</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>40140</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>40141</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>40141</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>40142</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>40142</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>40143</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>40143</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>40144</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>40144</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>40145</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>40145</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>40146</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>40146</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>40147</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>40147</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>40148</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>40148</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>40149</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>40149</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>40150</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>40150</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>40151</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>40151</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>40152</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>40152</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>40153</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>40153</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>40154</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>40154</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>40155</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>40155</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>40156</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>40156</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>40157</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>40157</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>40158</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>40158</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>40159</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>40159</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>40160</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>40160</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>40161</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>40161</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>40162</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>40162</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>40163</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>40163</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>40164</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>40164</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>40165</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>40165</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>40166</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>40166</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>40167</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>40167</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>40168</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>40168</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>40169</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>40169</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>40170</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>40170</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>40171</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>40171</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>40172</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>40172</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>40173</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>40173</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>40174</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>40174</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>40175</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>40175</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>40176</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>40176</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>40177</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>40177</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>40178</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>40178</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>40179</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>40179</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>40180</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>40180</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>40181</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>40181</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>40182</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>40182</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>40183</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>40183</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>40184</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>40184</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>40185</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>40185</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>40186</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>40186</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>40187</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>40187</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>40188</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>40188</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>40189</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>40189</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>40190</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>40190</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>40191</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>40191</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>40192</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>40192</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>40193</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>40193</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>40194</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>40194</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>40195</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>40195</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>40196</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>40196</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>40197</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>40197</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>40198</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>40198</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>40199</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>40199</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>40200</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>40200</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>40201</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>40201</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>40202</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>40202</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>40203</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>40203</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>40204</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>40204</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>40205</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>40205</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>40206</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>40206</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>40207</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>40207</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>40208</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>40208</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>40209</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>40209</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>40210</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>40210</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>40211</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>40211</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>40212</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>40212</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>40213</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>40213</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>40214</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>40214</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>40215</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>40215</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>40216</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>40216</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>40217</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>40217</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>40218</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>40218</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>40219</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>40219</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>40220</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>40220</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>40221</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>40221</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>40222</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>40222</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>40223</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>40223</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>40224</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>40224</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>40225</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>40225</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>40226</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>40226</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>40227</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>40227</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>40228</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>40228</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>40229</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>40229</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>40230</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>40230</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>40231</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>40231</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>40232</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>40232</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>40233</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>40233</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>40234</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>40234</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>40235</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>40235</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>40236</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>40236</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>40237</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>40237</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>40238</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>40238</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>40239</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>40239</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>40240</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>40240</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>40241</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>40241</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>40242</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>40242</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>40243</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>40243</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>40244</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>40244</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>40245</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>40245</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>40246</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>40246</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>40247</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="629" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>40247</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>40248</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="631" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>40248</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>40249</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="633" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>40249</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>40250</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>40250</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="636" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>40251</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>40251</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>40252</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>40252</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>40253</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>40253</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>40254</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>40254</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>40255</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>40255</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>40256</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>40256</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>40257</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>40257</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="650" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
         <v>40258</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="651" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>40258</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
         <v>40259</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>40259</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
         <v>40260</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>40260</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
         <v>40261</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="657" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>40261</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="658" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>40262</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="659" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>40262</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>40263</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="661" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>40263</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="662" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>40264</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="663" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>40264</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="664" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>40265</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="665" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>40265</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="666" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
         <v>40266</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="667" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>40266</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
         <v>40267</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="669" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>40267</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
         <v>40268</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="671" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>40268</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="672" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>40269</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
         <v>40269</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="674" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
         <v>40270</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="2">
         <v>40270</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="2">
         <v>40271</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="2">
         <v>40271</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="678" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
         <v>40272</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
         <v>40272</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
         <v>40273</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
         <v>40273</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
         <v>40274</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
         <v>40274</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
         <v>40275</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
         <v>40275</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
         <v>40276</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
         <v>40276</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
         <v>40277</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
         <v>40277</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
         <v>40278</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
         <v>40278</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
         <v>40279</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
         <v>40279</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
         <v>40280</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
         <v>40280</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="696" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
         <v>40281</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
         <v>40281</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
         <v>40282</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>40282</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
         <v>40283</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
         <v>40283</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
         <v>40284</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
         <v>40284</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
         <v>40285</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
         <v>40285</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
         <v>40286</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
         <v>40286</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
         <v>40287</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
         <v>40287</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
         <v>40288</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
         <v>40288</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="2">
         <v>40289</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
         <v>40289</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="2">
         <v>40290</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="2">
         <v>40290</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="2">
         <v>40291</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="2">
         <v>40291</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="2">
         <v>40292</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="2">
         <v>40292</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="2">
         <v>40293</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="2">
         <v>40293</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="2">
         <v>40294</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="2">
         <v>40294</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="2">
         <v>40295</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="2">
         <v>40295</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="2">
         <v>40296</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="2">
         <v>40296</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="2">
         <v>40297</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="2">
         <v>40297</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="730" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="2">
         <v>40298</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="2">
         <v>40298</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="2">
         <v>39934</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
         <v>39935</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="2">
         <v>39936</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="2">
         <v>39937</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="2">
         <v>39938</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="2">
         <v>39939</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="2">
         <v>39940</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="2">
         <v>39941</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="2">
         <v>39942</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="2">
         <v>39943</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="2">
         <v>39944</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="2">
         <v>39945</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="2">
         <v>39946</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="2">
         <v>39947</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="2">
         <v>39948</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="2">
         <v>39949</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="2">
         <v>39950</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="2">
         <v>39951</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="2">
         <v>39952</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="2">
         <v>39953</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="2">
         <v>39954</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="2">
         <v>39955</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="2">
         <v>39956</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="2">
         <v>39957</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="2">
         <v>39958</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="2">
         <v>39959</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="2">
         <v>39960</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="2">
         <v>39961</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="2">
         <v>39962</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="2">
         <v>39963</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="2">
         <v>39964</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="2">
         <v>39965</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="2">
         <v>39966</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
         <v>39967</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="2">
         <v>39968</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
         <v>39969</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="2">
         <v>39970</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
         <v>39971</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="2">
         <v>39972</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="771" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="2">
         <v>39973</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="772" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="2">
         <v>39974</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="773" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="2">
         <v>39975</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="774" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="2">
         <v>39976</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="775" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="2">
         <v>39977</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="776" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="2">
         <v>39978</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="2">
         <v>39979</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="2">
         <v>39980</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="779" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="2">
         <v>39981</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="780" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="2">
         <v>39982</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="781" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="2">
         <v>39983</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="2">
         <v>39984</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="783" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="2">
         <v>39985</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="784" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="2">
         <v>39986</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="785" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
         <v>39987</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="2">
         <v>39988</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
         <v>39989</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="2">
         <v>39990</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
         <v>39991</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="790" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="2">
         <v>39992</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="791" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="2">
         <v>39993</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="792" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="2">
         <v>39994</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="793" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
         <v>39995</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="794" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="2">
         <v>39996</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="795" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
         <v>39997</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="796" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="2">
         <v>39998</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="797" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
         <v>39999</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="798" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="2">
         <v>40000</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="799" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
         <v>40001</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="800" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="2">
         <v>40002</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="801" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="2">
         <v>40003</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="802" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="2">
         <v>40004</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="803" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="2">
         <v>40005</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="2">
         <v>40006</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="805" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="2">
         <v>40007</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="2">
         <v>40008</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="807" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="2">
         <v>40009</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="808" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="2">
         <v>40010</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="2">
         <v>40011</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="810" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="2">
         <v>40012</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="811" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="2">
         <v>40013</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="2">
         <v>40014</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="2">
         <v>40015</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="814" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="2">
         <v>40016</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="815" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="2">
         <v>40017</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="816" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="2">
         <v>40018</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="2">
         <v>40019</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="818" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="2">
         <v>40020</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="819" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="2">
         <v>40021</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="820" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="2">
         <v>40022</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" s="2">
         <v>40023</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="822" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="2">
         <v>40024</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="823" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="2">
         <v>40025</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="2">
         <v>40026</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="825" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="2">
         <v>40027</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="2">
         <v>40028</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="827" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" s="2">
         <v>40029</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="828" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="2">
         <v>40030</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="829" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="2">
         <v>40031</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="2">
         <v>40032</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="831" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="2">
         <v>40033</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="832" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="2">
         <v>40034</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="833" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="2">
         <v>40035</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="834" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="2">
         <v>40036</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="835" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="2">
         <v>40037</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="836" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" s="2">
         <v>40038</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="837" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="2">
         <v>40039</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="838" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="2">
         <v>40040</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="839" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="2">
         <v>40041</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="840" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="2">
         <v>40042</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="841" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="2">
         <v>40043</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="842" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="2">
         <v>40044</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="843" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="2">
         <v>40045</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="2">
         <v>40046</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="845" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="2">
         <v>40047</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="846" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="2">
         <v>40048</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="847" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="2">
         <v>40049</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="848" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="2">
         <v>40050</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="849" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>40051</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="850" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="2">
         <v>40052</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="851" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="2">
         <v>40053</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="852" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="2">
         <v>40054</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="853" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="2">
         <v>40055</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="854" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="2">
         <v>40056</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="855" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="2">
         <v>40057</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="856" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="2">
         <v>40058</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="857" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="2">
         <v>40059</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="858" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="2">
         <v>40060</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="859" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="2">
         <v>40061</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="860" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="2">
         <v>40062</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="861" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="2">
         <v>40063</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="2">
         <v>40064</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="863" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="2">
         <v>40065</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="864" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="2">
         <v>40066</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="865" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="2">
         <v>40067</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="2">
         <v>40068</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="867" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" s="2">
         <v>40069</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="868" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="2">
         <v>40070</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="869" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" s="2">
         <v>40071</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="870" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" s="2">
         <v>40072</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="871" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" s="2">
         <v>40073</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="872" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="2">
         <v>40074</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="873" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="2">
         <v>40075</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="874" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="2">
         <v>40076</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="875" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="2">
         <v>40077</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="876" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="2">
         <v>40078</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="877" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="2">
         <v>40079</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="878" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="2">
         <v>40080</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="879" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="2">
         <v>40081</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="880" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="2">
         <v>40082</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" s="2">
         <v>40083</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" s="2">
         <v>40084</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" s="2">
         <v>40085</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" s="2">
         <v>40086</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="885" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" s="2">
         <v>40087</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" s="2">
         <v>40088</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="887" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887" s="2">
         <v>40089</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="2">
         <v>40090</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="889" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="2">
         <v>40091</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="890" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" s="2">
         <v>40092</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="891" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="2">
         <v>40093</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" s="2">
         <v>40094</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="893" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="2">
         <v>40095</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="894" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" s="2">
         <v>40096</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" s="2">
         <v>40097</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="896" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896" s="2">
         <v>40098</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="2">
         <v>40099</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="2">
         <v>40100</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="2">
         <v>40101</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="2">
         <v>40102</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="2">
         <v>40103</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="2">
         <v>40104</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="2">
         <v>40105</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="2">
         <v>40106</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="2">
         <v>40107</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="906" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="2">
         <v>40108</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="2">
         <v>40109</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" s="2">
         <v>40110</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" s="2">
         <v>40111</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" s="2">
         <v>40112</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" s="2">
         <v>40113</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="912" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" s="2">
         <v>40114</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" s="2">
         <v>40115</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="914" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" s="2">
         <v>40116</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915" s="2">
         <v>40117</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916" s="2">
         <v>40118</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="917" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917" s="2">
         <v>40119</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918" s="2">
         <v>40120</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919" s="2">
         <v>40121</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920" s="2">
         <v>40122</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921" s="2">
         <v>40123</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="922" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="2">
         <v>40124</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923" s="2">
         <v>40125</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="924" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924" s="2">
         <v>40126</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="925" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925" s="2">
         <v>40127</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926" s="2">
         <v>40128</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927" s="2">
         <v>40129</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928" s="2">
         <v>40130</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="929" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929" s="2">
         <v>40131</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="930" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930" s="2">
         <v>40132</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="931" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" s="2">
         <v>40133</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="932" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" s="2">
         <v>40134</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="933" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" s="2">
         <v>40135</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" s="2">
         <v>40136</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="935" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" s="2">
         <v>40137</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="936" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" s="2">
         <v>40138</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="937" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" s="2">
         <v>40139</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="938" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938" s="2">
         <v>40140</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939" s="2">
         <v>40141</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="940" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940" s="2">
         <v>40142</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941" s="2">
         <v>40143</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="942" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942" s="2">
         <v>40144</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="943" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943" s="2">
         <v>40145</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="944" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A944" s="2">
         <v>40146</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="945" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945" s="2">
         <v>40147</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="946" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946" s="2">
         <v>40148</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="947" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A947" s="2">
         <v>40149</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="948" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948" s="2">
         <v>40150</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="949" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A949" s="2">
         <v>40151</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="950" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A950" s="2">
         <v>40152</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="951" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A951" s="2">
         <v>40153</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="952" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952" s="2">
         <v>40154</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="953" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A953" s="2">
         <v>40155</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="954" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A954" s="2">
         <v>40156</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="955" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A955" s="2">
         <v>40157</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956" s="2">
         <v>40158</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="957" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957" s="2">
         <v>40159</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="958" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" s="2">
         <v>40160</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="959" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" s="2">
         <v>40161</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="960" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960" s="2">
         <v>40162</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="961" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A961" s="2">
         <v>40163</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="962" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962" s="2">
         <v>40164</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="963" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963" s="2">
         <v>40165</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="964" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964" s="2">
         <v>40166</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="965" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965" s="2">
         <v>40167</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="966" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" s="2">
         <v>40168</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="967" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" s="2">
         <v>40169</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="968" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968" s="2">
         <v>40170</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="969" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969" s="2">
         <v>40171</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="970" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970" s="2">
         <v>40172</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="971" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971" s="2">
         <v>40173</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="972" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972" s="2">
         <v>40174</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="973" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" s="2">
         <v>40175</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="974" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" s="2">
         <v>40176</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="975" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" s="2">
         <v>40177</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="976" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976" s="2">
         <v>40178</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="977" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977" s="2">
         <v>40179</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="978" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978" s="2">
         <v>40180</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="979" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979" s="2">
         <v>40181</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="980" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A980" s="2">
         <v>40182</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="981" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981" s="2">
         <v>40183</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="982" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982" s="2">
         <v>40184</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="983" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" s="2">
         <v>40185</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="984" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" s="2">
         <v>40186</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="985" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985" s="2">
         <v>40187</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="986" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A986" s="2">
         <v>40188</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="987" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A987" s="2">
         <v>40189</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="988" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988" s="2">
         <v>40190</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="989" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989" s="2">
         <v>40191</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="990" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" s="2">
         <v>40192</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="991" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" s="2">
         <v>40193</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="992" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992" s="2">
         <v>40194</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="993" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A993" s="2">
         <v>40195</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="994" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A994" s="2">
         <v>40196</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="995" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A995" s="2">
         <v>40197</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="996" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A996" s="2">
         <v>40198</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="997" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A997" s="2">
         <v>40199</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="998" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A998" s="2">
         <v>40200</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="999" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A999" s="2">
         <v>40201</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1000" s="2">
         <v>40202</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="1001" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1001" s="2">
         <v>40203</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1002" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1002" s="2">
         <v>40204</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1003" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1003" s="2">
         <v>40205</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1004" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1004" s="2">
         <v>40206</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1005" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1005" s="2">
         <v>40207</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1006" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1006" s="2">
         <v>40208</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1007" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1007" s="2">
         <v>40209</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1008" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1008" s="2">
         <v>40210</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1009" s="2">
         <v>40211</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="1010" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1010" s="2">
         <v>40212</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1011" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1011" s="2">
         <v>40213</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1012" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1012" s="2">
         <v>40214</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1013" s="2">
         <v>40215</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1014" s="2">
         <v>40216</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1015" s="2">
         <v>40217</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1016" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1016" s="2">
         <v>40218</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1017" s="2">
         <v>40219</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1018" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1018" s="2">
         <v>40220</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1019" s="2">
         <v>40221</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1020" s="2">
         <v>40222</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="1021" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1021" s="2">
         <v>40223</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1022" s="2">
         <v>40224</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1023" s="2">
         <v>40225</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1024" s="2">
         <v>40226</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1025" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1025" s="2">
         <v>40227</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1026" s="2">
         <v>40228</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1027" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1027" s="2">
         <v>40229</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1028" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1028" s="2">
         <v>40230</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1029" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1029" s="2">
         <v>40231</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1030" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1030" s="2">
         <v>40232</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1031" s="2">
         <v>40233</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1032" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1032" s="2">
         <v>40234</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="1033" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1033" s="2">
         <v>40235</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="1034" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1034" s="2">
         <v>40236</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1035" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1035" s="2">
         <v>40237</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1036" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1036" s="2">
         <v>40238</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1037" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1037" s="2">
         <v>40239</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1038" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1038" s="2">
         <v>40240</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="1039" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1039" s="2">
         <v>40241</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="1040" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1040" s="2">
         <v>40242</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1041" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1041" s="2">
         <v>40243</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1042" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1042" s="2">
         <v>40244</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1043" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1043" s="2">
         <v>40245</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1044" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1044" s="2">
         <v>40246</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1045" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1045" s="2">
         <v>40247</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1046" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1046" s="2">
         <v>40248</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1047" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1047" s="2">
         <v>40249</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1048" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1048" s="2">
         <v>40250</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1049" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1049" s="2">
         <v>40251</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="1050" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1050" s="2">
         <v>40252</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1051" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1051" s="2">
         <v>40253</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1052" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1052" s="2">
         <v>40254</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1053" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1053" s="2">
         <v>40255</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1054" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1054" s="2">
         <v>40256</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1055" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1055" s="2">
         <v>40257</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1056" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1056" s="2">
         <v>40258</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1057" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1057" s="2">
         <v>40259</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1058" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1058" s="2">
         <v>40260</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1059" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1059" s="2">
         <v>40261</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1060" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1060" s="2">
         <v>40262</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1061" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1061" s="2">
         <v>40263</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1062" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1062" s="2">
         <v>40264</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1063" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1063" s="2">
         <v>40265</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="1064" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1064" s="2">
         <v>40266</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1065" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1065" s="2">
         <v>40267</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1066" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1066" s="2">
         <v>40268</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="1067" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1067" s="2">
         <v>40269</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1068" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1068" s="2">
         <v>40270</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1069" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1069" s="2">
         <v>40271</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1070" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1070" s="2">
         <v>40272</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="1071" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1071" s="2">
         <v>40273</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1072" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1072" s="2">
         <v>40274</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1073" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1073" s="2">
         <v>40275</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="1074" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1074" s="2">
         <v>40276</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1075" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1075" s="2">
         <v>40277</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1076" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1076" s="2">
         <v>40278</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="1077" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1077" s="2">
         <v>40279</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1078" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1078" s="2">
         <v>40280</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1079" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1079" s="2">
         <v>40281</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1080" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1080" s="2">
         <v>40282</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="1081" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1081" s="2">
         <v>40283</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1082" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1082" s="2">
         <v>40284</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1083" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1083" s="2">
         <v>40285</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1084" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1084" s="2">
         <v>40286</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1085" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1085" s="2">
         <v>40287</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1086" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1086" s="2">
         <v>40288</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1087" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1087" s="2">
         <v>40289</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1088" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1088" s="2">
         <v>40290</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1089" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1089" s="2">
         <v>40291</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1090" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1090" s="2">
         <v>40292</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1091" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1091" s="2">
         <v>40293</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="1092" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1092" s="2">
         <v>40294</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1093" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1093" s="2">
         <v>40295</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1094" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1094" s="2">
         <v>40296</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1095" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1095" s="2">
         <v>40297</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="1096" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1096" s="2">
         <v>40298</v>
       </c>
@@ -12504,7 +12504,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1096" xr:uid="{BF2B86DD-F5F6-4367-B999-8B331577D399}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>